--- a/notes/vocabulary/RoleVocabulary.xlsx
+++ b/notes/vocabulary/RoleVocabulary.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944a82e2ddcde9eb/Documents/GithubC/iSamples/metadata/notes/vocabulary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A07AF896-40FF-4774-8123-103315250366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBF1779-3443-4F5C-994F-AD248D1187A5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A07AF896-40FF-4774-8123-103315250366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95C7B2D-3BC9-4DE3-BB6A-08A2FC211A2D}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="2250" windowWidth="12690" windowHeight="13440" xr2:uid="{6D09EB57-77EB-4B90-8113-743A5CC7E14E}"/>
+    <workbookView xWindow="9750" yWindow="225" windowWidth="16440" windowHeight="16455" xr2:uid="{6D09EB57-77EB-4B90-8113-743A5CC7E14E}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleRelatedRoles" sheetId="3" r:id="rId1"/>
-    <sheet name="SampleRelatedRolesOld" sheetId="6" r:id="rId2"/>
-    <sheet name="ProductRelatedRoles" sheetId="4" r:id="rId3"/>
-    <sheet name="Roles" sheetId="1" r:id="rId4"/>
-    <sheet name="cessda-ddi roles" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
+    <sheet name="ProductRelatedRoles" sheetId="4" r:id="rId2"/>
+    <sheet name="Roles" sheetId="1" r:id="rId3"/>
+    <sheet name="cessda-ddi roles" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Roles!$F$1:$F$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Roles!$F$1:$F$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="356">
   <si>
     <t>Entry</t>
   </si>
@@ -1008,6 +1007,9 @@
     <t>Role related to Initiative or Curation-- Leader of project that supported sample collection or curation activities. Should be a Person</t>
   </si>
   <si>
+    <t>sample owner</t>
+  </si>
+  <si>
     <t>metadata publisher</t>
   </si>
   <si>
@@ -1108,15 +1110,6 @@
   </si>
   <si>
     <t>classification</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>image of the sample</t>
-  </si>
-  <si>
-    <t>current owner</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1303,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1351,7 +1348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1457,7 +1454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1599,7 +1596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1610,7 +1607,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>309</v>
@@ -1632,12 +1629,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>148</v>
@@ -1648,7 +1653,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1659,7 +1664,7 @@
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>317</v>
@@ -1670,7 +1675,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>318</v>
@@ -1692,7 +1697,7 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>320</v>
@@ -1703,7 +1708,7 @@
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>313</v>
@@ -1714,7 +1719,7 @@
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>315</v>
@@ -1725,10 +1730,10 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>310</v>
@@ -1736,7 +1741,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>165</v>
@@ -1744,29 +1749,29 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -1777,189 +1782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6C3D5D-7D59-4E13-8A13-BC57B58C1A8A}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E48E36-4B1F-4EAC-B506-45202D4A675B}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E48E36-4B1F-4EAC-B506-45202D4A675B}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>309</v>
@@ -1986,7 +1813,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +1826,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,18 +1839,18 @@
         <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>314</v>
@@ -2031,40 +1858,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>310</v>
@@ -2088,10 +1915,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -2102,12 +1929,12 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,10 +1947,10 @@
         <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,15 +1965,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2158,12 +1977,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C4C688-E06A-402C-B8FF-1231BDDB6C39}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -3207,7 +3026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45558578-E863-4F34-A55F-1F97248AC422}">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -3813,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C555DF-D7F4-4F59-9A87-C7C1A37E4222}">
   <dimension ref="A9:M9"/>
   <sheetViews>
